--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Itga5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H2">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I2">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J2">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>146.7403210819182</v>
+        <v>205.9631266458626</v>
       </c>
       <c r="R2">
-        <v>146.7403210819182</v>
+        <v>1853.668139812764</v>
       </c>
       <c r="S2">
-        <v>0.01119432612069752</v>
+        <v>0.01104763938995755</v>
       </c>
       <c r="T2">
-        <v>0.01119432612069752</v>
+        <v>0.01611064245572546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H3">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I3">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J3">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>263.9085866261986</v>
+        <v>317.3607576704524</v>
       </c>
       <c r="R3">
-        <v>263.9085866261986</v>
+        <v>2856.246819034072</v>
       </c>
       <c r="S3">
-        <v>0.02013269947185671</v>
+        <v>0.0170228878555301</v>
       </c>
       <c r="T3">
-        <v>0.02013269947185671</v>
+        <v>0.02482427694496013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H4">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I4">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J4">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>116.2981240834761</v>
+        <v>137.6407976967615</v>
       </c>
       <c r="R4">
-        <v>116.2981240834761</v>
+        <v>1238.767179270854</v>
       </c>
       <c r="S4">
-        <v>0.008871993182357828</v>
+        <v>0.007382903547169794</v>
       </c>
       <c r="T4">
-        <v>0.008871993182357828</v>
+        <v>0.01076640132204902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H5">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I5">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J5">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>191.482587144889</v>
+        <v>232.6343443761751</v>
       </c>
       <c r="R5">
-        <v>191.482587144889</v>
+        <v>2093.709099385576</v>
       </c>
       <c r="S5">
-        <v>0.0146075632868361</v>
+        <v>0.01247825466742985</v>
       </c>
       <c r="T5">
-        <v>0.0146075632868361</v>
+        <v>0.01819689187186823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H6">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I6">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J6">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>58.04994362980737</v>
+        <v>79.852837143907</v>
       </c>
       <c r="R6">
-        <v>58.04994362980737</v>
+        <v>479.117022863442</v>
       </c>
       <c r="S6">
-        <v>0.00442843518052139</v>
+        <v>0.004283219833556617</v>
       </c>
       <c r="T6">
-        <v>0.00442843518052139</v>
+        <v>0.004164112703897596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H7">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J7">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>172.1226728058169</v>
+        <v>247.8118683668026</v>
       </c>
       <c r="R7">
-        <v>172.1226728058169</v>
+        <v>2230.306815301224</v>
       </c>
       <c r="S7">
-        <v>0.01313066046161088</v>
+        <v>0.01329236064169576</v>
       </c>
       <c r="T7">
-        <v>0.01313066046161088</v>
+        <v>0.01938409302946489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H8">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J8">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>309.5580749148581</v>
+        <v>381.8438940279058</v>
       </c>
       <c r="R8">
-        <v>309.5580749148581</v>
+        <v>3436.595046251152</v>
       </c>
       <c r="S8">
-        <v>0.02361514557377672</v>
+        <v>0.02048169355930783</v>
       </c>
       <c r="T8">
-        <v>0.02361514557377672</v>
+        <v>0.02986821258138581</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H9">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J9">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>136.4147482570628</v>
+        <v>165.6074259320182</v>
       </c>
       <c r="R9">
-        <v>136.4147482570628</v>
+        <v>1490.466833388164</v>
       </c>
       <c r="S9">
-        <v>0.01040662285868874</v>
+        <v>0.008883003243303081</v>
       </c>
       <c r="T9">
-        <v>0.01040662285868874</v>
+        <v>0.01295397904786748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H10">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J10">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>224.604215474981</v>
+        <v>279.9022935074684</v>
       </c>
       <c r="R10">
-        <v>224.604215474981</v>
+        <v>2519.120641567216</v>
       </c>
       <c r="S10">
-        <v>0.01713430103990806</v>
+        <v>0.01501365634446531</v>
       </c>
       <c r="T10">
-        <v>0.01713430103990806</v>
+        <v>0.02189423828756454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H11">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J11">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>68.09111074666075</v>
+        <v>96.077783869762</v>
       </c>
       <c r="R11">
-        <v>68.09111074666075</v>
+        <v>576.466703218572</v>
       </c>
       <c r="S11">
-        <v>0.005194442086528709</v>
+        <v>0.005153508430683617</v>
       </c>
       <c r="T11">
-        <v>0.005194442086528709</v>
+        <v>0.005010200447272782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H12">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I12">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J12">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>2158.393330386713</v>
+        <v>3490.752443801524</v>
       </c>
       <c r="R12">
-        <v>2158.393330386713</v>
+        <v>20944.51466280914</v>
       </c>
       <c r="S12">
-        <v>0.1646565760449639</v>
+        <v>0.1872401862739297</v>
       </c>
       <c r="T12">
-        <v>0.1646565760449639</v>
+        <v>0.1820334394781693</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H13">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I13">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J13">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>3881.813321696222</v>
+        <v>5378.767833087219</v>
       </c>
       <c r="R13">
-        <v>3881.813321696222</v>
+        <v>32272.60699852331</v>
       </c>
       <c r="S13">
-        <v>0.2961304973462416</v>
+        <v>0.288511290103027</v>
       </c>
       <c r="T13">
-        <v>0.2961304973462416</v>
+        <v>0.280488411760624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H14">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I14">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J14">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>1710.621140171351</v>
+        <v>2332.795965721047</v>
       </c>
       <c r="R14">
-        <v>1710.621140171351</v>
+        <v>13996.77579432628</v>
       </c>
       <c r="S14">
-        <v>0.1304975399457345</v>
+        <v>0.1251286529746008</v>
       </c>
       <c r="T14">
-        <v>0.1304975399457345</v>
+        <v>0.1216490943077441</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H15">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I15">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J15">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>2816.504256849745</v>
+        <v>3942.787815314082</v>
       </c>
       <c r="R15">
-        <v>2816.504256849745</v>
+        <v>23656.7268918845</v>
       </c>
       <c r="S15">
-        <v>0.2148616476987792</v>
+        <v>0.2114868747822222</v>
       </c>
       <c r="T15">
-        <v>0.2148616476987792</v>
+        <v>0.2056058797376716</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H16">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I16">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J16">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N16">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O16">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P16">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q16">
-        <v>853.8526441546684</v>
+        <v>1353.380534389833</v>
       </c>
       <c r="R16">
-        <v>853.8526441546684</v>
+        <v>5413.522137559333</v>
       </c>
       <c r="S16">
-        <v>0.06513754970149817</v>
+        <v>0.07259386835312089</v>
       </c>
       <c r="T16">
-        <v>0.06513754970149817</v>
+        <v>0.04705012602373504</v>
       </c>
     </row>
   </sheetData>
